--- a/resources/map builder.xlsx
+++ b/resources/map builder.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9CCA54-654D-4196-AFC9-D1A71271B70F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE934E53-E160-4CBB-A232-D67E3EEF96A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="39">
   <si>
     <t>StartingRoom</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>story_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HarryPotterRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindStaffRoom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindStaffRoomLocked9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -740,11 +752,16 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="N5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="P5" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
     </row>
@@ -1080,6 +1097,9 @@
       </c>
     </row>
     <row r="25" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="D25" s="11" t="s">
         <v>7</v>
       </c>
@@ -1096,6 +1116,9 @@
       </c>
     </row>
     <row r="27" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" s="12" t="s">
         <v>28</v>
       </c>
@@ -1123,6 +1146,9 @@
       <c r="D30" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="G30" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="I30" s="5" t="s">
         <v>25</v>
       </c>
@@ -1147,8 +1173,8 @@
       <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>7</v>
+      <c r="D31" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>26</v>
@@ -1342,6 +1368,9 @@
       <c r="D38" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="E38" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="H38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1426,6 +1455,9 @@
       <c r="P41" s="8"/>
     </row>
     <row r="42" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="B42" s="11" t="s">
         <v>7</v>
       </c>
@@ -1560,6 +1592,9 @@
       <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="14" t="s">
+        <v>36</v>
+      </c>
       <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.3"/>
